--- a/reports/Debug-snowbowl-20251217/For Winter Ending (Prior Year)_Revenue.xlsx
+++ b/reports/Debug-snowbowl-20251217/For Winter Ending (Prior Year)_Revenue.xlsx
@@ -49,6 +49,9 @@
     <t>account</t>
   </si>
   <si>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
     <t xml:space="preserve">T101                     </t>
   </si>
   <si>
@@ -56,9 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">T103                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T100                     </t>
   </si>
   <si>
     <t>department</t>
@@ -483,26 +483,26 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2">
-        <v>-2002.5600</v>
+        <v>1181021.9300</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2">
-        <v>448.8000</v>
+        <v>-2002.5600</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -516,7 +516,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="2">
-        <v>-607.1000</v>
+        <v>448.8000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -530,7 +530,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="2">
-        <v>107532.1300</v>
+        <v>-607.1000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -544,7 +544,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2">
-        <v>1181021.9300</v>
+        <v>107532.1300</v>
       </c>
     </row>
     <row r="7" spans="1:4">
